--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ncam1</t>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H2">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I2">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J2">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N2">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O2">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P2">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q2">
-        <v>0.012842353555</v>
+        <v>0.08411759301049999</v>
       </c>
       <c r="R2">
-        <v>0.05136941422</v>
+        <v>0.336470372042</v>
       </c>
       <c r="S2">
-        <v>3.280795409528292E-05</v>
+        <v>0.001179476260424534</v>
       </c>
       <c r="T2">
-        <v>3.184689412851735E-05</v>
+        <v>0.00111542504743117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H3">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I3">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J3">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +623,22 @@
         <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P3">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q3">
-        <v>0.04313738499000001</v>
+        <v>0.07628675860050001</v>
       </c>
       <c r="R3">
-        <v>0.25882430994</v>
+        <v>0.457720551603</v>
       </c>
       <c r="S3">
-        <v>0.0001102017118966062</v>
+        <v>0.001069674220739951</v>
       </c>
       <c r="T3">
-        <v>0.0001604602762500752</v>
+        <v>0.00151737867700954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.66889</v>
+        <v>1.1829055</v>
       </c>
       <c r="H4">
-        <v>1.33778</v>
+        <v>2.365811</v>
       </c>
       <c r="I4">
-        <v>0.01180009979280774</v>
+        <v>0.04349966202328188</v>
       </c>
       <c r="J4">
-        <v>0.01150792026947964</v>
+        <v>0.04164321481729736</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N4">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O4">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P4">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q4">
-        <v>4.563054203145001</v>
+        <v>2.94189366738575</v>
       </c>
       <c r="R4">
-        <v>18.25221681258</v>
+        <v>11.767574669543</v>
       </c>
       <c r="S4">
-        <v>0.01165709012681585</v>
+        <v>0.0412505115421174</v>
       </c>
       <c r="T4">
-        <v>0.01131561309910105</v>
+        <v>0.03901041109285665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -735,10 +729,10 @@
         <v>7.049111</v>
       </c>
       <c r="I5">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J5">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +741,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N5">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O5">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P5">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q5">
-        <v>0.04511313554816667</v>
+        <v>0.1670897774403333</v>
       </c>
       <c r="R5">
-        <v>0.270678813289</v>
+        <v>1.002538664642</v>
       </c>
       <c r="S5">
-        <v>0.0001152490993040978</v>
+        <v>0.002342891882627832</v>
       </c>
       <c r="T5">
-        <v>0.0001678095738590554</v>
+        <v>0.003323492439388685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +791,10 @@
         <v>7.049111</v>
       </c>
       <c r="I6">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J6">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,10 +809,10 @@
         <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P6">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q6">
         <v>0.151534739167</v>
@@ -827,10 +821,10 @@
         <v>1.363812652503</v>
       </c>
       <c r="S6">
-        <v>0.0003871210012354785</v>
+        <v>0.002124782950634241</v>
       </c>
       <c r="T6">
-        <v>0.0008455069580778931</v>
+        <v>0.004521143372515132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +853,10 @@
         <v>7.049111</v>
       </c>
       <c r="I7">
-        <v>0.04145186465665943</v>
+        <v>0.08640699984476037</v>
       </c>
       <c r="J7">
-        <v>0.0606382270318826</v>
+        <v>0.1240790763268806</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N7">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O7">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P7">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q7">
-        <v>16.0292801392285</v>
+        <v>5.843728292073833</v>
       </c>
       <c r="R7">
-        <v>96.17568083537101</v>
+        <v>35.062369752443</v>
       </c>
       <c r="S7">
-        <v>0.04094949455611985</v>
+        <v>0.0819393250114983</v>
       </c>
       <c r="T7">
-        <v>0.05962491049994565</v>
+        <v>0.1162344405149768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,19 +906,19 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H8">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I8">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J8">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +927,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N8">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O8">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P8">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q8">
-        <v>0.0004045974633333334</v>
+        <v>1.677222481558</v>
       </c>
       <c r="R8">
-        <v>0.00242758478</v>
+        <v>6.708889926231999</v>
       </c>
       <c r="S8">
-        <v>1.033612331825256E-06</v>
+        <v>0.02351760231894715</v>
       </c>
       <c r="T8">
-        <v>1.505001305748977E-06</v>
+        <v>0.02224048381663669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,19 +968,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H9">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I9">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J9">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +995,22 @@
         <v>0.193473</v>
       </c>
       <c r="O9">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P9">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q9">
-        <v>0.00135904034</v>
+        <v>1.521083307198</v>
       </c>
       <c r="R9">
-        <v>0.01223136306</v>
+        <v>9.126499843187998</v>
       </c>
       <c r="S9">
-        <v>3.471897335438036E-06</v>
+        <v>0.02132825710721577</v>
       </c>
       <c r="T9">
-        <v>7.582934910470895E-06</v>
+        <v>0.03025504581187264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02107333333333333</v>
+        <v>23.585978</v>
       </c>
       <c r="H10">
-        <v>0.06322</v>
+        <v>47.17195599999999</v>
       </c>
       <c r="I10">
-        <v>0.0003717613304137229</v>
+        <v>0.8673406890817245</v>
       </c>
       <c r="J10">
-        <v>0.0005438343520134124</v>
+        <v>0.8303249486371054</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N10">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O10">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P10">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q10">
-        <v>0.14375870807</v>
+        <v>58.658480594857</v>
       </c>
       <c r="R10">
-        <v>0.8625522484200001</v>
+        <v>234.633922379428</v>
       </c>
       <c r="S10">
-        <v>0.0003672558207464597</v>
+        <v>0.8224948296555615</v>
       </c>
       <c r="T10">
-        <v>0.0005347464157971926</v>
+        <v>0.7778294190085959</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1080,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1098,19 +1092,19 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H11">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I11">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J11">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1113,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N11">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O11">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P11">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q11">
-        <v>1.02021954629075</v>
+        <v>0.005322942793999999</v>
       </c>
       <c r="R11">
-        <v>4.080878185163001</v>
+        <v>0.031937656764</v>
       </c>
       <c r="S11">
-        <v>0.002606322579305231</v>
+        <v>7.463699847351973E-05</v>
       </c>
       <c r="T11">
-        <v>0.002529974255841574</v>
+        <v>0.0001058757776936697</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1142,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1160,19 +1154,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H12">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I12">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J12">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1181,22 @@
         <v>0.193473</v>
       </c>
       <c r="O12">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P12">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q12">
-        <v>3.4269110528835</v>
+        <v>0.004827409314</v>
       </c>
       <c r="R12">
-        <v>20.561466317301</v>
+        <v>0.043446683826</v>
       </c>
       <c r="S12">
-        <v>0.00875462118607118</v>
+        <v>6.768874954023655E-05</v>
       </c>
       <c r="T12">
-        <v>0.01274725147010175</v>
+        <v>0.0001440290836700887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1204,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>53.1378185</v>
+        <v>0.07485399999999999</v>
       </c>
       <c r="H13">
-        <v>106.275637</v>
+        <v>0.224562</v>
       </c>
       <c r="I13">
-        <v>0.9374210424316486</v>
+        <v>0.002752649050233296</v>
       </c>
       <c r="J13">
-        <v>0.9142097782775647</v>
+        <v>0.003952760218716512</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,400 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N13">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O13">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P13">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q13">
-        <v>362.4971909467643</v>
+        <v>0.186162384551</v>
       </c>
       <c r="R13">
-        <v>1449.988763787057</v>
+        <v>1.116974307306</v>
       </c>
       <c r="S13">
-        <v>0.9260600986662721</v>
+        <v>0.002610323302219539</v>
       </c>
       <c r="T13">
-        <v>0.8989325525516214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H14">
-        <v>1.137562</v>
-      </c>
-      <c r="I14">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J14">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.0191995</v>
-      </c>
-      <c r="N14">
-        <v>0.038399</v>
-      </c>
-      <c r="O14">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P14">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q14">
-        <v>0.007280207206333334</v>
-      </c>
-      <c r="R14">
-        <v>0.043681243238</v>
-      </c>
-      <c r="S14">
-        <v>1.859851489110727E-05</v>
-      </c>
-      <c r="T14">
-        <v>2.708054880370797E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H15">
-        <v>1.137562</v>
-      </c>
-      <c r="I15">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J15">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N15">
-        <v>0.193473</v>
-      </c>
-      <c r="O15">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P15">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q15">
-        <v>0.024454170314</v>
-      </c>
-      <c r="R15">
-        <v>0.220087532826</v>
-      </c>
-      <c r="S15">
-        <v>6.247229479113514E-05</v>
-      </c>
-      <c r="T15">
-        <v>0.0001364450902028645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.3791873333333333</v>
-      </c>
-      <c r="H16">
-        <v>1.137562</v>
-      </c>
-      <c r="I16">
-        <v>0.006689363532870855</v>
-      </c>
-      <c r="J16">
-        <v>0.009785594640067723</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N16">
-        <v>13.643661</v>
-      </c>
-      <c r="O16">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P16">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q16">
-        <v>2.586751715747</v>
-      </c>
-      <c r="R16">
-        <v>15.520510294482</v>
-      </c>
-      <c r="S16">
-        <v>0.006608292723188613</v>
-      </c>
-      <c r="T16">
-        <v>0.009622069001061152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.128441</v>
-      </c>
-      <c r="H17">
-        <v>0.385323</v>
-      </c>
-      <c r="I17">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J17">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.0191995</v>
-      </c>
-      <c r="N17">
-        <v>0.038399</v>
-      </c>
-      <c r="O17">
-        <v>0.002780311579676609</v>
-      </c>
-      <c r="P17">
-        <v>0.002767389187860387</v>
-      </c>
-      <c r="Q17">
-        <v>0.0024660029795</v>
-      </c>
-      <c r="R17">
-        <v>0.014796017877</v>
-      </c>
-      <c r="S17">
-        <v>6.299819749065218E-06</v>
-      </c>
-      <c r="T17">
-        <v>9.172913921782872E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.128441</v>
-      </c>
-      <c r="H18">
-        <v>0.385323</v>
-      </c>
-      <c r="I18">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J18">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.06449100000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.193473</v>
-      </c>
-      <c r="O18">
-        <v>0.009339049146327988</v>
-      </c>
-      <c r="P18">
-        <v>0.01394346436998132</v>
-      </c>
-      <c r="Q18">
-        <v>0.008283288531000001</v>
-      </c>
-      <c r="R18">
-        <v>0.074549596779</v>
-      </c>
-      <c r="S18">
-        <v>2.116105499814917E-05</v>
-      </c>
-      <c r="T18">
-        <v>4.621764043826916E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.128441</v>
-      </c>
-      <c r="H19">
-        <v>0.385323</v>
-      </c>
-      <c r="I19">
-        <v>0.002265868255599604</v>
-      </c>
-      <c r="J19">
-        <v>0.00331464542899184</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.821830500000001</v>
-      </c>
-      <c r="N19">
-        <v>13.643661</v>
-      </c>
-      <c r="O19">
-        <v>0.9878806392739954</v>
-      </c>
-      <c r="P19">
-        <v>0.9832891464421584</v>
-      </c>
-      <c r="Q19">
-        <v>0.8762027312505001</v>
-      </c>
-      <c r="R19">
-        <v>5.257216387503</v>
-      </c>
-      <c r="S19">
-        <v>0.00223840738085239</v>
-      </c>
-      <c r="T19">
-        <v>0.003259254874631788</v>
+        <v>0.003702855357352753</v>
       </c>
     </row>
   </sheetData>
